--- a/santa_child.xlsx
+++ b/santa_child.xlsx
@@ -1,76 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\secretSanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29E0B14-BA0A-4B1F-BEFD-7183DAEF4B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA0DB0-84A2-403C-AAB7-1F61164AB45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Santa</t>
   </si>
   <si>
+    <t>SantaEmail</t>
+  </si>
+  <si>
     <t>Child</t>
   </si>
   <si>
+    <t>ChildEmail</t>
+  </si>
+  <si>
     <t>faheem</t>
   </si>
   <si>
+    <t>faheem@deloitte.com</t>
+  </si>
+  <si>
     <t>bishal</t>
   </si>
   <si>
+    <t>bishal@deloitte.com</t>
+  </si>
+  <si>
     <t>adrija</t>
   </si>
   <si>
+    <t>adrija@deloitte.com</t>
+  </si>
+  <si>
     <t>riya</t>
   </si>
   <si>
+    <t>riya@deloitte.com</t>
+  </si>
+  <si>
     <t>abhishek</t>
   </si>
   <si>
+    <t>abhishek@deloitte.com</t>
+  </si>
+  <si>
+    <t>varsha</t>
+  </si>
+  <si>
+    <t>varsha@deloitte.com</t>
+  </si>
+  <si>
     <t>farhin</t>
   </si>
   <si>
-    <t>varsha</t>
+    <t>farhin@deloitte.com</t>
   </si>
   <si>
     <t>prasnna</t>
   </si>
   <si>
+    <t>prasnna@deloitte.com</t>
+  </si>
+  <si>
     <t>sharwesh</t>
+  </si>
+  <si>
+    <t>sharwesh@deloitte.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,18 +122,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -123,44 +174,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -187,15 +238,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -222,7 +272,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -234,221 +283,297 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/santa_child.xlsx
+++ b/santa_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\secretSanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACA0DB0-84A2-403C-AAB7-1F61164AB45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1CAFD2-4732-4DDB-A7DD-E23704AD5271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Santa</t>
   </si>
@@ -70,12 +70,6 @@
     <t>varsha@deloitte.com</t>
   </si>
   <si>
-    <t>farhin</t>
-  </si>
-  <si>
-    <t>farhin@deloitte.com</t>
-  </si>
-  <si>
     <t>prasnna</t>
   </si>
   <si>
@@ -86,6 +80,21 @@
   </si>
   <si>
     <t>sharwesh@deloitte.com</t>
+  </si>
+  <si>
+    <t>akash</t>
+  </si>
+  <si>
+    <t>akash@deloitte.com</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>rahul@deloitte.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sharwesh@deloitte.com</t>
   </si>
 </sst>
 </file>
@@ -448,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,10 +491,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -552,23 +561,37 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
     </row>

--- a/santa_child.xlsx
+++ b/santa_child.xlsx
@@ -8,100 +8,215 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\secretSanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1CAFD2-4732-4DDB-A7DD-E23704AD5271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437D901E-407D-4D25-A681-1D45F9C885D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
-  <si>
-    <t>Santa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
   <si>
     <t>SantaEmail</t>
   </si>
   <si>
-    <t>Child</t>
-  </si>
-  <si>
     <t>ChildEmail</t>
   </si>
   <si>
-    <t>faheem</t>
-  </si>
-  <si>
-    <t>faheem@deloitte.com</t>
-  </si>
-  <si>
-    <t>bishal</t>
-  </si>
-  <si>
-    <t>bishal@deloitte.com</t>
-  </si>
-  <si>
-    <t>adrija</t>
-  </si>
-  <si>
-    <t>adrija@deloitte.com</t>
-  </si>
-  <si>
-    <t>riya</t>
-  </si>
-  <si>
-    <t>riya@deloitte.com</t>
-  </si>
-  <si>
-    <t>abhishek</t>
-  </si>
-  <si>
-    <t>abhishek@deloitte.com</t>
-  </si>
-  <si>
-    <t>varsha</t>
-  </si>
-  <si>
-    <t>varsha@deloitte.com</t>
-  </si>
-  <si>
-    <t>prasnna</t>
-  </si>
-  <si>
-    <t>prasnna@deloitte.com</t>
-  </si>
-  <si>
-    <t>sharwesh</t>
-  </si>
-  <si>
-    <t>sharwesh@deloitte.com</t>
-  </si>
-  <si>
-    <t>akash</t>
-  </si>
-  <si>
-    <t>akash@deloitte.com</t>
-  </si>
-  <si>
-    <t>rahul</t>
-  </si>
-  <si>
-    <t>rahul@deloitte.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sharwesh@deloitte.com</t>
+    <t>srsreekar@deloitte.com</t>
+  </si>
+  <si>
+    <t>abhishekjain86@deloitte.com</t>
+  </si>
+  <si>
+    <t>nsahitya@deloitte.com</t>
+  </si>
+  <si>
+    <t>adrbiswas@deloitte.com</t>
+  </si>
+  <si>
+    <t>tadhiksawant@deloitte.com</t>
+  </si>
+  <si>
+    <t>bisgupta@deloitte.com</t>
+  </si>
+  <si>
+    <t>mdshamim@deloitte.com</t>
+  </si>
+  <si>
+    <t>ckoganti@deloitte.com</t>
+  </si>
+  <si>
+    <t>hbhandula@deloitte.com</t>
+  </si>
+  <si>
+    <t>dtnair@deloitte.com</t>
+  </si>
+  <si>
+    <t>fahahmad@deloitte.com</t>
+  </si>
+  <si>
+    <t>ppamidi@deloitte.com</t>
+  </si>
+  <si>
+    <t>bepavani@deloitte.com</t>
+  </si>
+  <si>
+    <t>karthia@deloitte.com</t>
+  </si>
+  <si>
+    <t>pprasannadurga@deloitte.com</t>
+  </si>
+  <si>
+    <t>pmotagi@deloitte.com</t>
+  </si>
+  <si>
+    <t>ashwbhat@deloitte.com</t>
+  </si>
+  <si>
+    <t>tsarveshwar@deloitte.com</t>
+  </si>
+  <si>
+    <t>tsathvik@deloitte.com</t>
+  </si>
+  <si>
+    <t>lavanyas@deloitte.com</t>
+  </si>
+  <si>
+    <t>mvarshasri@deloitte.com</t>
+  </si>
+  <si>
+    <t>srivatss@deloitte.com</t>
+  </si>
+  <si>
+    <t>achandana@deloitte.com</t>
+  </si>
+  <si>
+    <t>jpranav@deloitte.com</t>
+  </si>
+  <si>
+    <t>agiraka@deloitte.com</t>
+  </si>
+  <si>
+    <t>gessingh@deloitte.com</t>
+  </si>
+  <si>
+    <t>psaimanoj@deloitte.com</t>
+  </si>
+  <si>
+    <t>maarer@deloitte.com</t>
+  </si>
+  <si>
+    <t>mmurudkar@deloitte.com</t>
+  </si>
+  <si>
+    <t>pringupta@deloitte.com</t>
+  </si>
+  <si>
+    <t>rahulsingh82@deloitte.com</t>
+  </si>
+  <si>
+    <t>vijayasharma@deloitte.com</t>
+  </si>
+  <si>
+    <t>prkasera@deloitte.com</t>
+  </si>
+  <si>
+    <t>mzainulabdin@deloitte.com</t>
+  </si>
+  <si>
+    <t>riyakhan@deloitte.com</t>
+  </si>
+  <si>
+    <t>mrsharma46@deloitte.com</t>
+  </si>
+  <si>
+    <t>sriharis8@deloitte.com</t>
+  </si>
+  <si>
+    <t>dtawakley@deloitte.com</t>
+  </si>
+  <si>
+    <t>lchatterjee@deloitte.com</t>
+  </si>
+  <si>
+    <t>ayushsingh59@deloitte.com</t>
+  </si>
+  <si>
+    <t>ibapat@deloitte.com</t>
+  </si>
+  <si>
+    <t>ragchauhan@deloitte.com</t>
+  </si>
+  <si>
+    <t>surpathak@deloitte.com</t>
+  </si>
+  <si>
+    <t>smpalav@deloitte.com</t>
+  </si>
+  <si>
+    <t>deepakk2@deloitte.com</t>
+  </si>
+  <si>
+    <t>princekumar4@deloitte.com</t>
+  </si>
+  <si>
+    <t>rsneha6@deloitte.com</t>
+  </si>
+  <si>
+    <t>shrutigupta25@deloitte.com</t>
+  </si>
+  <si>
+    <t>mrfazil@deloitte.com</t>
+  </si>
+  <si>
+    <t>chaithc@deloitte.com</t>
+  </si>
+  <si>
+    <t>sanjandas@deloitte.com</t>
+  </si>
+  <si>
+    <t>arcpanda@deloitte.com</t>
+  </si>
+  <si>
+    <t>subhajitghosh8@deloitte.com</t>
+  </si>
+  <si>
+    <t>amashalkar@deloitte.com</t>
+  </si>
+  <si>
+    <t>niparveen@deloitte.com</t>
+  </si>
+  <si>
+    <t>nithsampathkumar@deloitte.com</t>
+  </si>
+  <si>
+    <t>dvalsan@deloitte.com</t>
+  </si>
+  <si>
+    <t>drathi@deloitte.com</t>
+  </si>
+  <si>
+    <t>tchhonker@deloitte.com</t>
+  </si>
+  <si>
+    <t>damulya3@deloitte.com</t>
+  </si>
+  <si>
+    <t>vlaxmipriya@deloitte.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +228,34 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -146,17 +289,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -456,147 +627,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0CBD4C-872E-4C09-B578-0826975EE083}">
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="B38" r:id="rId1" display="mailto:subhajitghosh8@deloitte.com" xr:uid="{A3A1F173-9D19-4921-AA9D-F5758529CF7B}"/>
+    <hyperlink ref="B40" r:id="rId2" display="mailto:amashalkar@deloitte.com" xr:uid="{55722836-4FD6-422D-9CC3-8B0E8801234C}"/>
+    <hyperlink ref="B44" r:id="rId3" display="mailto:lavanyas@deloitte.com" xr:uid="{4197E86D-4C6A-4500-8A67-EB0A9247FF42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/santa_child.xlsx
+++ b/santa_child.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fahahmad\Documents\secretSanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437D901E-407D-4D25-A681-1D45F9C885D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3A13B-375B-488F-99E2-BAB68FAC48DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
   <si>
     <t>SantaEmail</t>
   </si>
@@ -29,194 +28,383 @@
     <t>ChildEmail</t>
   </si>
   <si>
+    <t>Sreekar SR</t>
+  </si>
+  <si>
     <t>srsreekar@deloitte.com</t>
   </si>
   <si>
+    <t>Abhishek Jain</t>
+  </si>
+  <si>
     <t>abhishekjain86@deloitte.com</t>
   </si>
   <si>
+    <t>Sahitya</t>
+  </si>
+  <si>
     <t>nsahitya@deloitte.com</t>
   </si>
   <si>
+    <t>Adrija Biswas</t>
+  </si>
+  <si>
     <t>adrbiswas@deloitte.com</t>
   </si>
   <si>
+    <t>Tejaswini</t>
+  </si>
+  <si>
     <t>tadhiksawant@deloitte.com</t>
   </si>
   <si>
+    <t>Bishal</t>
+  </si>
+  <si>
     <t>bisgupta@deloitte.com</t>
   </si>
   <si>
+    <t>Shamim</t>
+  </si>
+  <si>
     <t>mdshamim@deloitte.com</t>
   </si>
   <si>
+    <t>Chandana</t>
+  </si>
+  <si>
     <t>ckoganti@deloitte.com</t>
   </si>
   <si>
+    <t>Harsh Bhandula</t>
+  </si>
+  <si>
     <t>hbhandula@deloitte.com</t>
   </si>
   <si>
+    <t>Deepthi</t>
+  </si>
+  <si>
     <t>dtnair@deloitte.com</t>
   </si>
   <si>
+    <t>Faheem</t>
+  </si>
+  <si>
     <t>fahahmad@deloitte.com</t>
   </si>
   <si>
+    <t>Praveena Pamidi</t>
+  </si>
+  <si>
     <t>ppamidi@deloitte.com</t>
   </si>
   <si>
+    <t>Pavani</t>
+  </si>
+  <si>
     <t>bepavani@deloitte.com</t>
   </si>
   <si>
+    <t>Karthik</t>
+  </si>
+  <si>
     <t>karthia@deloitte.com</t>
   </si>
   <si>
+    <t>Prasanna</t>
+  </si>
+  <si>
     <t>pprasannadurga@deloitte.com</t>
   </si>
   <si>
+    <t>Prashant</t>
+  </si>
+  <si>
     <t>pmotagi@deloitte.com</t>
   </si>
   <si>
+    <t>Ashwini Bhat</t>
+  </si>
+  <si>
     <t>ashwbhat@deloitte.com</t>
   </si>
   <si>
+    <t>Sarveshwar</t>
+  </si>
+  <si>
     <t>tsarveshwar@deloitte.com</t>
   </si>
   <si>
+    <t>Sathvik Teja</t>
+  </si>
+  <si>
     <t>tsathvik@deloitte.com</t>
   </si>
   <si>
+    <t>S Lavanya</t>
+  </si>
+  <si>
     <t>lavanyas@deloitte.com</t>
   </si>
   <si>
+    <t>Varshasri Mitta</t>
+  </si>
+  <si>
     <t>mvarshasri@deloitte.com</t>
   </si>
   <si>
+    <t>S Srivatsaan</t>
+  </si>
+  <si>
     <t>srivatss@deloitte.com</t>
   </si>
   <si>
+    <t>Chandana Alla  </t>
+  </si>
+  <si>
     <t>achandana@deloitte.com</t>
   </si>
   <si>
+    <t>Jayesh Pranav</t>
+  </si>
+  <si>
     <t>jpranav@deloitte.com</t>
   </si>
   <si>
+    <t>Akash Giraka</t>
+  </si>
+  <si>
     <t>agiraka@deloitte.com</t>
   </si>
   <si>
+    <t>Geshika</t>
+  </si>
+  <si>
     <t>gessingh@deloitte.com</t>
   </si>
   <si>
+    <t>Sai Manoj</t>
+  </si>
+  <si>
     <t>psaimanoj@deloitte.com</t>
   </si>
   <si>
+    <t>Arer Madhu</t>
+  </si>
+  <si>
     <t>maarer@deloitte.com</t>
   </si>
   <si>
+    <t>Mrunal</t>
+  </si>
+  <si>
     <t>mmurudkar@deloitte.com</t>
   </si>
   <si>
+    <t>Princy Gupta</t>
+  </si>
+  <si>
     <t>pringupta@deloitte.com</t>
   </si>
   <si>
+    <t>Rahul Singh</t>
+  </si>
+  <si>
     <t>rahulsingh82@deloitte.com</t>
   </si>
   <si>
+    <t>Vijay Anand</t>
+  </si>
+  <si>
     <t>vijayasharma@deloitte.com</t>
   </si>
   <si>
+    <t>Prateek Kasera</t>
+  </si>
+  <si>
     <t>prkasera@deloitte.com</t>
   </si>
   <si>
+    <t>Zainulabdin Md</t>
+  </si>
+  <si>
     <t>mzainulabdin@deloitte.com</t>
   </si>
   <si>
+    <t>Riya Khan</t>
+  </si>
+  <si>
     <t>riyakhan@deloitte.com</t>
   </si>
   <si>
+    <t>Vimal Sharma</t>
+  </si>
+  <si>
     <t>mrsharma46@deloitte.com</t>
   </si>
   <si>
+    <t>S Srihari</t>
+  </si>
+  <si>
     <t>sriharis8@deloitte.com</t>
   </si>
   <si>
+    <t>Daksh Tawakley</t>
+  </si>
+  <si>
     <t>dtawakley@deloitte.com</t>
   </si>
   <si>
+    <t>Lipika</t>
+  </si>
+  <si>
     <t>lchatterjee@deloitte.com</t>
   </si>
   <si>
+    <t>Ayush Singh</t>
+  </si>
+  <si>
     <t>ayushsingh59@deloitte.com</t>
   </si>
   <si>
+    <t>Indraneel Bapat</t>
+  </si>
+  <si>
     <t>ibapat@deloitte.com</t>
   </si>
   <si>
+    <t>Raghvendra Chauhan</t>
+  </si>
+  <si>
     <t>ragchauhan@deloitte.com</t>
   </si>
   <si>
+    <t>Surjendu</t>
+  </si>
+  <si>
     <t>surpathak@deloitte.com</t>
   </si>
   <si>
+    <t>Smitesh Palav</t>
+  </si>
+  <si>
     <t>smpalav@deloitte.com</t>
   </si>
   <si>
+    <t>K Deepak</t>
+  </si>
+  <si>
     <t>deepakk2@deloitte.com</t>
   </si>
   <si>
+    <t>Prince Kumar</t>
+  </si>
+  <si>
     <t>princekumar4@deloitte.com</t>
   </si>
   <si>
+    <t>Sneha R</t>
+  </si>
+  <si>
     <t>rsneha6@deloitte.com</t>
   </si>
   <si>
+    <t>Shruti Gupta</t>
+  </si>
+  <si>
     <t>shrutigupta25@deloitte.com</t>
   </si>
   <si>
+    <t>Imad Fazil</t>
+  </si>
+  <si>
     <t>mrfazil@deloitte.com</t>
   </si>
   <si>
+    <t>Chaithra</t>
+  </si>
+  <si>
     <t>chaithc@deloitte.com</t>
   </si>
   <si>
+    <t>Sanjana</t>
+  </si>
+  <si>
     <t>sanjandas@deloitte.com</t>
   </si>
   <si>
+    <t>Archana Panda</t>
+  </si>
+  <si>
     <t>arcpanda@deloitte.com</t>
   </si>
   <si>
+    <t>Subhajit Ghosh</t>
+  </si>
+  <si>
     <t>subhajitghosh8@deloitte.com</t>
   </si>
   <si>
+    <t>Aditya Mashalkar</t>
+  </si>
+  <si>
     <t>amashalkar@deloitte.com</t>
   </si>
   <si>
+    <t>Nikhat Praveen</t>
+  </si>
+  <si>
     <t>niparveen@deloitte.com</t>
   </si>
   <si>
+    <t>Nithya Sampath</t>
+  </si>
+  <si>
     <t>nithsampathkumar@deloitte.com</t>
   </si>
   <si>
+    <t>Deepthi Valsan</t>
+  </si>
+  <si>
     <t>dvalsan@deloitte.com</t>
   </si>
   <si>
+    <t>Drishti</t>
+  </si>
+  <si>
     <t>drathi@deloitte.com</t>
   </si>
   <si>
+    <t>Tanmay Chhonker</t>
+  </si>
+  <si>
     <t>tchhonker@deloitte.com</t>
   </si>
   <si>
+    <t>Amulya</t>
+  </si>
+  <si>
     <t>damulya3@deloitte.com</t>
   </si>
   <si>
+    <t>Priya Laxmi Vedula Venkata</t>
+  </si>
+  <si>
     <t>vlaxmipriya@deloitte.com</t>
+  </si>
+  <si>
+    <t>SantaName</t>
+  </si>
+  <si>
+    <t>ChildName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +431,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -307,21 +508,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -628,518 +841,892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0CBD4C-872E-4C09-B578-0826975EE083}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="D59" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>62</v>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" display="mailto:subhajitghosh8@deloitte.com" xr:uid="{A3A1F173-9D19-4921-AA9D-F5758529CF7B}"/>
-    <hyperlink ref="B40" r:id="rId2" display="mailto:amashalkar@deloitte.com" xr:uid="{55722836-4FD6-422D-9CC3-8B0E8801234C}"/>
-    <hyperlink ref="B44" r:id="rId3" display="mailto:lavanyas@deloitte.com" xr:uid="{4197E86D-4C6A-4500-8A67-EB0A9247FF42}"/>
+    <hyperlink ref="D38" r:id="rId1" display="mailto:subhajitghosh8@deloitte.com" xr:uid="{DA9DA45C-AA93-437F-86CE-5BA8646E2C5E}"/>
+    <hyperlink ref="D40" r:id="rId2" display="mailto:amashalkar@deloitte.com" xr:uid="{2798A199-6F6C-40E1-8B8E-8BE20B0920E3}"/>
+    <hyperlink ref="D44" r:id="rId3" display="mailto:lavanyas@deloitte.com" xr:uid="{61C08331-EE75-4075-81C3-056C11A36E63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
